--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45247.94877465659</v>
+        <v>45249.31437767238</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
